--- a/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
+++ b/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\fuels\GbPbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\fuels\GbPbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1FC029-8F0B-49B9-B484-F92984C4D839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2507C16-8FFD-4A24-9319-9C8A1575EA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="720" windowWidth="14480" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29895" yWindow="4140" windowWidth="26325" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Source:</t>
   </si>
@@ -118,24 +118,12 @@
     <t>Note</t>
   </si>
   <si>
-    <t>GWP values for VOC, CO, and NOx vary by region.  These values should</t>
-  </si>
-  <si>
-    <t>if creating a version of the model for another country.</t>
-  </si>
-  <si>
-    <t>be updated (likely from the same IPCC source, using different rows in the table)</t>
-  </si>
-  <si>
     <t>p. 740, Table 8.A.6, Row 2 (BC four regions)</t>
   </si>
   <si>
     <t>p. 740, Table 8.A.6, Row 7 (OC four regions)</t>
   </si>
   <si>
-    <t>BC and OC values only include aerosol-radiation interaction.</t>
-  </si>
-  <si>
     <t>100-Year GWP</t>
   </si>
   <si>
@@ -163,7 +151,7 @@
     <t>Global Warming Potential (g CO2e/g pollutant)</t>
   </si>
   <si>
-    <t>Nevada</t>
+    <t>We use GWPs for the Kyoto gases (CO2, CH4, N2O, and F-gases)</t>
   </si>
 </sst>
 </file>
@@ -222,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -243,7 +231,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -549,9 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -559,18 +548,12 @@
     <col min="3" max="3" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="10">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,49 +561,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -652,10 +620,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,7 +735,7 @@
         <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,7 +749,7 @@
         <v>-46</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,8 +816,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,13 +829,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
+++ b/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\fuels\GbPbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\fuels\GbPbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2507C16-8FFD-4A24-9319-9C8A1575EA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1FC029-8F0B-49B9-B484-F92984C4D839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="4140" windowWidth="26325" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="720" windowWidth="14480" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Source:</t>
   </si>
@@ -118,12 +118,24 @@
     <t>Note</t>
   </si>
   <si>
+    <t>GWP values for VOC, CO, and NOx vary by region.  These values should</t>
+  </si>
+  <si>
+    <t>if creating a version of the model for another country.</t>
+  </si>
+  <si>
+    <t>be updated (likely from the same IPCC source, using different rows in the table)</t>
+  </si>
+  <si>
     <t>p. 740, Table 8.A.6, Row 2 (BC four regions)</t>
   </si>
   <si>
     <t>p. 740, Table 8.A.6, Row 7 (OC four regions)</t>
   </si>
   <si>
+    <t>BC and OC values only include aerosol-radiation interaction.</t>
+  </si>
+  <si>
     <t>100-Year GWP</t>
   </si>
   <si>
@@ -151,7 +163,7 @@
     <t>Global Warming Potential (g CO2e/g pollutant)</t>
   </si>
   <si>
-    <t>We use GWPs for the Kyoto gases (CO2, CH4, N2O, and F-gases)</t>
+    <t>Nevada</t>
   </si>
 </sst>
 </file>
@@ -210,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -231,6 +243,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,11 +549,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -548,12 +559,18 @@
     <col min="3" max="3" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="10">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,34 +578,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -620,10 +652,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,7 +767,7 @@
         <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,7 +781,7 @@
         <v>-46</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -816,8 +848,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,13 +861,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
